--- a/dat/1116590227360849981/2번.xlsx
+++ b/dat/1116590227360849981/2번.xlsx
@@ -362,7 +362,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,7 +666,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -704,7 +704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="123.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="132.75" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -723,7 +723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="81.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87.75" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -742,7 +742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="81.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="87.75" customFormat="1" s="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -761,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="96" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="102.75" customFormat="1" s="1">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -780,7 +780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="158.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="170.25" customFormat="1" s="1">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -799,7 +799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="126" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="135" customFormat="1" s="1">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -818,7 +818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="126" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="135" customFormat="1" s="1">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1006,15 +1006,6 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
